--- a/results/Consolidated Results.xlsx
+++ b/results/Consolidated Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sourabhbhattacharjee/GitHub/Hinglish_Hate_Detection/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F0E4545-AB4E-1245-9A10-E039C52F0FDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C5B9D1-C1BE-CB45-B2A9-365EC1218B84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{94DF096B-E7B2-A54C-AF7D-D0256275A415}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{94DF096B-E7B2-A54C-AF7D-D0256275A415}"/>
   </bookViews>
   <sheets>
     <sheet name="Primary Table" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>Aggression</t>
   </si>
@@ -134,12 +134,18 @@
   </si>
   <si>
     <t>0.867 (0.857)</t>
+  </si>
+  <si>
+    <t>Models</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -175,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,6 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FED40B-EB2F-E54B-B7A0-5AEC602B9712}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,6 +532,8 @@
     <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -536,456 +545,495 @@
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="C1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="2"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L3" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M3" t="s">
         <v>6</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="7">
         <v>0.90411375199999999</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="7">
         <v>0.90603431560000003</v>
       </c>
-      <c r="E3">
+      <c r="E4" s="7">
         <v>0.89282049132019103</v>
       </c>
-      <c r="F3">
+      <c r="F4" s="7">
         <v>0.89187042288083695</v>
       </c>
-      <c r="G3">
+      <c r="G4" s="7">
         <v>0.85209500000000005</v>
       </c>
-      <c r="H3">
+      <c r="H4" s="7">
         <v>0.85061900000000001</v>
       </c>
-      <c r="I3">
+      <c r="I4" s="7">
         <v>0.61264341641117903</v>
       </c>
-      <c r="J3">
+      <c r="J4" s="7">
         <v>0.611014023163436</v>
       </c>
-      <c r="M3">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7">
         <v>0.90337822639999998</v>
       </c>
-      <c r="N3">
+      <c r="N4" s="7">
         <v>0.9031978356</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="7">
         <v>0.93181507509999995</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="7">
         <v>0.91911768890000001</v>
       </c>
-      <c r="E5">
+      <c r="E6" s="7">
         <v>0.93721271424046704</v>
       </c>
-      <c r="F5">
+      <c r="F6" s="7">
         <v>0.92670099280916995</v>
       </c>
-      <c r="K5">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7">
         <v>0.91735229799999995</v>
       </c>
-      <c r="L5">
+      <c r="L6" s="7">
         <v>0.90303530040000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="1" t="s">
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="7">
         <v>0.94759825330000003</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="7">
         <v>0.93827493259999994</v>
       </c>
-      <c r="E6">
+      <c r="E7" s="7">
         <v>0.94110651279935997</v>
       </c>
-      <c r="F6">
+      <c r="F7" s="7">
         <v>0.93069745285397998</v>
       </c>
-      <c r="G6">
+      <c r="G7" s="7">
         <v>0.938864628820961</v>
       </c>
-      <c r="H6">
+      <c r="H7" s="7">
         <v>0.92798742138364798</v>
       </c>
-      <c r="I6">
+      <c r="I7" s="7">
         <v>0.94780145134807503</v>
       </c>
-      <c r="J6">
+      <c r="J7" s="7">
         <v>0.93875913710108805</v>
       </c>
-      <c r="K6">
+      <c r="K7" s="7">
         <v>0.91686216259999997</v>
       </c>
-      <c r="L6">
+      <c r="L7" s="7">
         <v>0.90187411200000001</v>
       </c>
-      <c r="M6">
+      <c r="M7" s="7">
         <v>0.94110651279935997</v>
       </c>
-      <c r="N6">
+      <c r="N7" s="7">
         <v>0.93069745285397998</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="7">
         <v>0.91880728469999995</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="7">
         <v>0.91568152680000003</v>
       </c>
-      <c r="E7">
+      <c r="E8" s="7">
         <v>0.92855635791923896</v>
       </c>
-      <c r="F7">
+      <c r="F8" s="7">
         <v>0.92545958196927702</v>
       </c>
-      <c r="G7">
+      <c r="G8" s="7">
         <v>0.94260490940988795</v>
       </c>
-      <c r="H7">
+      <c r="H8" s="7">
         <v>0.94051376623990701</v>
       </c>
-      <c r="I7">
+      <c r="I8" s="7">
         <v>0.93576744333556805</v>
       </c>
-      <c r="J7">
+      <c r="J8" s="7">
         <v>0.93333886472198802</v>
       </c>
-      <c r="K7">
+      <c r="K8" s="7">
         <v>0.92557334430000004</v>
       </c>
-      <c r="L7">
+      <c r="L8" s="7">
         <v>0.92270806630000002</v>
       </c>
-      <c r="M7">
+      <c r="M8" s="7">
         <v>0.93243243243243201</v>
       </c>
-      <c r="N7">
+      <c r="N8" s="7">
         <v>0.92992424242424199</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="7">
         <v>0.90498534630000005</v>
       </c>
-      <c r="D8">
+      <c r="D9" s="7">
         <v>0.90106479490000002</v>
       </c>
-      <c r="E8">
+      <c r="E9" s="7">
         <v>0.92900612158141804</v>
       </c>
-      <c r="F8">
+      <c r="F9" s="7">
         <v>0.92632190311377705</v>
       </c>
-      <c r="G8">
+      <c r="G9" s="7">
         <v>0.91588049940452698</v>
       </c>
-      <c r="H8">
+      <c r="H9" s="7">
         <v>0.91316082849263602</v>
       </c>
-      <c r="I8">
+      <c r="I9" s="7">
         <v>0.92268213979549096</v>
       </c>
-      <c r="J8">
+      <c r="J9" s="7">
         <v>0.92028756425117397</v>
       </c>
-      <c r="K8">
+      <c r="K9" s="7">
         <v>0.90895480009999996</v>
       </c>
-      <c r="L8">
+      <c r="L9" s="7">
         <v>0.90576249600000003</v>
       </c>
-      <c r="M8">
+      <c r="M9" s="7">
         <v>0.95256759330269103</v>
       </c>
-      <c r="N8">
+      <c r="N9" s="7">
         <v>0.95067606170253305</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="7">
         <v>0.97199339090000003</v>
       </c>
-      <c r="D9">
+      <c r="D10" s="7">
         <v>0.92654700990000005</v>
       </c>
-      <c r="E9">
+      <c r="E10" s="7">
         <v>0.98034079395781504</v>
       </c>
-      <c r="F9">
+      <c r="F10" s="7">
         <v>0.949226305609284</v>
       </c>
-      <c r="G9">
+      <c r="G10" s="7">
         <v>0.97410970961163701</v>
       </c>
-      <c r="H9">
+      <c r="H10" s="7">
         <v>0.93235944143269101</v>
       </c>
-      <c r="I9">
+      <c r="I10" s="7">
         <v>0.97224030824880103</v>
       </c>
-      <c r="J9">
+      <c r="J10" s="7">
         <v>0.92775418730832704</v>
       </c>
-      <c r="K9">
+      <c r="K10" s="7">
         <v>0.96583723860000004</v>
       </c>
-      <c r="L9">
+      <c r="L10" s="7">
         <v>0.9100529101</v>
       </c>
-      <c r="M9">
+      <c r="M10" s="7">
         <v>0.97224030824880103</v>
       </c>
-      <c r="N9">
+      <c r="N10" s="7">
         <v>0.92775418730832704</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10">
+      <c r="C11" s="7">
         <v>0.96880495479999995</v>
       </c>
-      <c r="D10">
+      <c r="D11" s="7">
         <v>0.92004264390000001</v>
       </c>
-      <c r="E10">
+      <c r="E11" s="7">
         <v>0.97433422982623996</v>
       </c>
-      <c r="F10">
+      <c r="F11" s="7">
         <v>0.93345942731234599</v>
       </c>
-      <c r="G10">
+      <c r="G11" s="7">
         <v>0.96827463799862901</v>
       </c>
-      <c r="H10">
+      <c r="H11" s="7">
         <v>0.91743335692380301</v>
       </c>
-      <c r="I10">
+      <c r="I11" s="7">
         <v>0.94051494624743004</v>
       </c>
-      <c r="J10">
+      <c r="J11" s="7">
         <v>0.84518754423213005</v>
       </c>
-      <c r="K10">
+      <c r="K11" s="7">
         <v>0.95699193520000003</v>
       </c>
-      <c r="L10">
+      <c r="L11" s="7">
         <v>0.88497532580000005</v>
       </c>
-      <c r="M10">
+      <c r="M11" s="7">
         <v>0.96698905015109005</v>
       </c>
-      <c r="N10">
+      <c r="N11" s="7">
         <v>0.91570725625938598</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C12" s="7">
         <v>0.89757799130000004</v>
       </c>
-      <c r="D11">
+      <c r="D12" s="7">
         <v>0.85770569910000005</v>
       </c>
-      <c r="E11">
+      <c r="E12" s="7">
         <v>0.91132942563296404</v>
       </c>
-      <c r="F11">
+      <c r="F12" s="7">
         <v>0.87022174411124398</v>
       </c>
-      <c r="G11">
+      <c r="G12" s="7">
         <v>0.90023034186204698</v>
       </c>
-      <c r="H11">
+      <c r="H12" s="7">
         <v>0.86809777102330299</v>
       </c>
-      <c r="I11">
+      <c r="I12" s="7">
         <v>0.89806766900695301</v>
       </c>
-      <c r="J11">
+      <c r="J12" s="7">
         <v>0.85366160588126505</v>
       </c>
-      <c r="K11">
+      <c r="K12" s="7">
         <v>0.89528438219999995</v>
       </c>
-      <c r="L11">
+      <c r="L12" s="7">
         <v>0.85207051599999994</v>
       </c>
-      <c r="M11">
+      <c r="M12" s="7">
         <v>0.89803498855971697</v>
       </c>
-      <c r="N11">
+      <c r="N12" s="7">
         <v>0.85636288726327703</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C13" s="7">
         <v>0.90578124599999998</v>
       </c>
-      <c r="D12">
+      <c r="D13" s="7">
         <v>0.85393328199999996</v>
       </c>
-      <c r="E12">
+      <c r="E13" s="7">
         <v>0.89778437104834896</v>
       </c>
-      <c r="F12">
+      <c r="F13" s="7">
         <v>0.87856365751783605</v>
       </c>
-      <c r="G12">
+      <c r="G13" s="7">
         <v>0.87374389618270598</v>
       </c>
-      <c r="H12">
+      <c r="H13" s="7">
         <v>0.82402811771712203</v>
       </c>
-      <c r="I12">
+      <c r="I13" s="7">
         <v>0.88346706770864603</v>
       </c>
-      <c r="J12">
+      <c r="J13" s="7">
         <v>0.84046585836965904</v>
       </c>
-      <c r="K12">
+      <c r="K13" s="7">
         <v>0.89348688970000001</v>
       </c>
-      <c r="L12">
+      <c r="L13" s="7">
         <v>0.85696196840000005</v>
       </c>
-      <c r="M12">
+      <c r="M13" s="7">
         <v>0.88252719208209696</v>
       </c>
-      <c r="N12">
+      <c r="N13" s="7">
         <v>0.83782511365201795</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
+  <mergeCells count="14">
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -993,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C003E1-A64F-304B-94DE-C787CF124809}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="143" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1008,90 +1056,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>